--- a/biology/Zoologie/Flustra_foliacea/Flustra_foliacea.xlsx
+++ b/biology/Zoologie/Flustra_foliacea/Flustra_foliacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flustra foliacea est une espèce d'ectoproctes, de la classe des Gymnolaemata et de l'ordre des Cheilostomata, à ne pas confondre avec Securiflustra securifrons (Pallas, 1766)[1]. Cette espèce forme des colonies atteignant une épaisseur d'environ 20 cm de haut, qui constituent des refuges pour de nombreux invertébrés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flustra foliacea est une espèce d'ectoproctes, de la classe des Gymnolaemata et de l'ordre des Cheilostomata, à ne pas confondre avec Securiflustra securifrons (Pallas, 1766). Cette espèce forme des colonies atteignant une épaisseur d'environ 20 cm de haut, qui constituent des refuges pour de nombreux invertébrés.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies de Flustra foliacea sont formées de structures en lames dressées, souples, larges, gris-brunâtre à verdâtre, plus ou moins lobées, souvent confondues avec des algues marines. Chaque lame possèdent des zoïdes sur chacune de ses deux faces.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies les plus denses sont ancrées sur les surplombs rocheux du plateau continental, de 5 à 100 m de profondeur, en Atlantique, Manche, Mer du Nord et Méditerranée. Elles ne craignent pas d'être balayées par les courants violents.
 </t>
